--- a/data/Bets.xlsx
+++ b/data/Bets.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1961,7 +1961,47 @@
         <v>918879530532</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>44305.03729818983</v>
+        <v>44305.03729819445</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS Vs RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>70</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>918879530532</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>44305.09382344508</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bets.xlsx
+++ b/data/Bets.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,7 +2001,207 @@
         <v>918879530532</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>44305.09382344508</v>
+        <v>44305.09382344907</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS Vs RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>918879530532</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>44305.11538010417</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS Vs RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>918879530532</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>44305.11761133102</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS Vs RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>918879530532</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>44305.118669375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS Vs RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>40</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>918879530532</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>44305.11879704861</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CHENNAI SUPER KINGS Vs RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>RAJASTHAN ROYALS</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>918879530532</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>44305.1189277451</v>
       </c>
     </row>
   </sheetData>
